--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Dll4-Notch4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Dll4-Notch4.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>36.16916666666667</v>
+        <v>36.75793933333333</v>
       </c>
       <c r="H2">
-        <v>108.5075</v>
+        <v>110.273818</v>
       </c>
       <c r="I2">
-        <v>0.9882701353977675</v>
+        <v>0.9858943139827973</v>
       </c>
       <c r="J2">
-        <v>0.9882701353977674</v>
+        <v>0.9858943139827971</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>29.546424</v>
+        <v>31.61061466666667</v>
       </c>
       <c r="N2">
-        <v>88.63927200000001</v>
+        <v>94.831844</v>
       </c>
       <c r="O2">
-        <v>0.9033225104610835</v>
+        <v>0.8860472269592234</v>
       </c>
       <c r="P2">
-        <v>0.9033225104610834</v>
+        <v>0.8860472269592234</v>
       </c>
       <c r="Q2">
-        <v>1068.66953406</v>
+        <v>1161.94105620671</v>
       </c>
       <c r="R2">
-        <v>9618.025806540001</v>
+        <v>10457.46950586039</v>
       </c>
       <c r="S2">
-        <v>0.8927266597212262</v>
+        <v>0.8735489229793234</v>
       </c>
       <c r="T2">
-        <v>0.892726659721226</v>
+        <v>0.8735489229793234</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>36.16916666666667</v>
+        <v>36.75793933333333</v>
       </c>
       <c r="H3">
-        <v>108.5075</v>
+        <v>110.273818</v>
       </c>
       <c r="I3">
-        <v>0.9882701353977675</v>
+        <v>0.9858943139827973</v>
       </c>
       <c r="J3">
-        <v>0.9882701353977674</v>
+        <v>0.9858943139827971</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>5.018356000000001</v>
       </c>
       <c r="O3">
-        <v>0.05114204841740398</v>
+        <v>0.04688826274109129</v>
       </c>
       <c r="P3">
-        <v>0.05114204841740398</v>
+        <v>0.04688826274109129</v>
       </c>
       <c r="Q3">
-        <v>60.5032515188889</v>
+        <v>61.48814180035645</v>
       </c>
       <c r="R3">
-        <v>544.5292636700001</v>
+        <v>553.3932762032081</v>
       </c>
       <c r="S3">
-        <v>0.05054215911398702</v>
+        <v>0.04622687162897336</v>
       </c>
       <c r="T3">
-        <v>0.05054215911398701</v>
+        <v>0.04622687162897334</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>36.16916666666667</v>
+        <v>36.75793933333333</v>
       </c>
       <c r="H4">
-        <v>108.5075</v>
+        <v>110.273818</v>
       </c>
       <c r="I4">
-        <v>0.9882701353977675</v>
+        <v>0.9858943139827973</v>
       </c>
       <c r="J4">
-        <v>0.9882701353977674</v>
+        <v>0.9858943139827971</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.489401</v>
+        <v>2.392593</v>
       </c>
       <c r="N4">
-        <v>4.468203</v>
+        <v>7.177778999999999</v>
       </c>
       <c r="O4">
-        <v>0.04553544112151264</v>
+        <v>0.06706451029968528</v>
       </c>
       <c r="P4">
-        <v>0.04553544112151264</v>
+        <v>0.06706451029968527</v>
       </c>
       <c r="Q4">
-        <v>53.8703930025</v>
+        <v>87.94678834335799</v>
       </c>
       <c r="R4">
-        <v>484.8335370225</v>
+        <v>791.5210950902219</v>
       </c>
       <c r="S4">
-        <v>0.04500131656255437</v>
+        <v>0.06611851937450046</v>
       </c>
       <c r="T4">
-        <v>0.04500131656255436</v>
+        <v>0.06611851937450045</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>0.140037</v>
       </c>
       <c r="I5">
-        <v>0.001275436121472683</v>
+        <v>0.001251989679428792</v>
       </c>
       <c r="J5">
-        <v>0.001275436121472683</v>
+        <v>0.001251989679428792</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>29.546424</v>
+        <v>31.61061466666667</v>
       </c>
       <c r="N5">
-        <v>88.63927200000001</v>
+        <v>94.831844</v>
       </c>
       <c r="O5">
-        <v>0.9033225104610835</v>
+        <v>0.8860472269592234</v>
       </c>
       <c r="P5">
-        <v>0.9033225104610834</v>
+        <v>0.8860472269592234</v>
       </c>
       <c r="Q5">
-        <v>1.379197525896</v>
+        <v>1.475551882025333</v>
       </c>
       <c r="R5">
-        <v>12.412777733064</v>
+        <v>13.279966938228</v>
       </c>
       <c r="S5">
-        <v>0.001152130159181452</v>
+        <v>0.001109321983639448</v>
       </c>
       <c r="T5">
-        <v>0.001152130159181451</v>
+        <v>0.001109321983639448</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>0.140037</v>
       </c>
       <c r="I6">
-        <v>0.001275436121472683</v>
+        <v>0.001251989679428792</v>
       </c>
       <c r="J6">
-        <v>0.001275436121472683</v>
+        <v>0.001251989679428792</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>5.018356000000001</v>
       </c>
       <c r="O6">
-        <v>0.05114204841740398</v>
+        <v>0.04688826274109129</v>
       </c>
       <c r="P6">
-        <v>0.05114204841740398</v>
+        <v>0.04688826274109129</v>
       </c>
       <c r="Q6">
         <v>0.07808394657466668</v>
@@ -818,10 +818,10 @@
         <v>0.7027555191720001</v>
       </c>
       <c r="S6">
-        <v>6.52284158776619E-05</v>
+        <v>5.870362103819187E-05</v>
       </c>
       <c r="T6">
-        <v>6.522841587766189E-05</v>
+        <v>5.870362103819184E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>0.140037</v>
       </c>
       <c r="I7">
-        <v>0.001275436121472683</v>
+        <v>0.001251989679428792</v>
       </c>
       <c r="J7">
-        <v>0.001275436121472683</v>
+        <v>0.001251989679428792</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.489401</v>
+        <v>2.392593</v>
       </c>
       <c r="N7">
-        <v>4.468203</v>
+        <v>7.177778999999999</v>
       </c>
       <c r="O7">
-        <v>0.04553544112151264</v>
+        <v>0.06706451029968528</v>
       </c>
       <c r="P7">
-        <v>0.04553544112151264</v>
+        <v>0.06706451029968527</v>
       </c>
       <c r="Q7">
-        <v>0.069523749279</v>
+        <v>0.111683848647</v>
       </c>
       <c r="R7">
-        <v>0.625713743511</v>
+        <v>1.005154637823</v>
       </c>
       <c r="S7">
-        <v>5.807754641356981E-05</v>
+        <v>8.396407475115192E-05</v>
       </c>
       <c r="T7">
-        <v>5.807754641356979E-05</v>
+        <v>8.396407475115187E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.3826160000000001</v>
+        <v>0.4792353333333333</v>
       </c>
       <c r="H8">
-        <v>1.147848</v>
+        <v>1.437706</v>
       </c>
       <c r="I8">
-        <v>0.01045442848075992</v>
+        <v>0.01285369633777395</v>
       </c>
       <c r="J8">
-        <v>0.01045442848075992</v>
+        <v>0.01285369633777395</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>29.546424</v>
+        <v>31.61061466666667</v>
       </c>
       <c r="N8">
-        <v>88.63927200000001</v>
+        <v>94.831844</v>
       </c>
       <c r="O8">
-        <v>0.9033225104610835</v>
+        <v>0.8860472269592234</v>
       </c>
       <c r="P8">
-        <v>0.9033225104610834</v>
+        <v>0.8860472269592234</v>
       </c>
       <c r="Q8">
-        <v>11.304934565184</v>
+        <v>15.14892345665155</v>
       </c>
       <c r="R8">
-        <v>101.744411086656</v>
+        <v>136.340311109864</v>
       </c>
       <c r="S8">
-        <v>0.009443720580675901</v>
+        <v>0.01138898199626054</v>
       </c>
       <c r="T8">
-        <v>0.009443720580675897</v>
+        <v>0.01138898199626054</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.3826160000000001</v>
+        <v>0.4792353333333333</v>
       </c>
       <c r="H9">
-        <v>1.147848</v>
+        <v>1.437706</v>
       </c>
       <c r="I9">
-        <v>0.01045442848075992</v>
+        <v>0.01285369633777395</v>
       </c>
       <c r="J9">
-        <v>0.01045442848075992</v>
+        <v>0.01285369633777395</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>5.018356000000001</v>
       </c>
       <c r="O9">
-        <v>0.05114204841740398</v>
+        <v>0.04688826274109129</v>
       </c>
       <c r="P9">
-        <v>0.05114204841740398</v>
+        <v>0.04688826274109129</v>
       </c>
       <c r="Q9">
-        <v>0.6400344330986669</v>
+        <v>0.8016578368151112</v>
       </c>
       <c r="R9">
-        <v>5.760309897888002</v>
+        <v>7.214920531336</v>
       </c>
       <c r="S9">
-        <v>0.0005346608875393109</v>
+        <v>0.000602687491079748</v>
       </c>
       <c r="T9">
-        <v>0.0005346608875393108</v>
+        <v>0.0006026874910797478</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.3826160000000001</v>
+        <v>0.4792353333333333</v>
       </c>
       <c r="H10">
-        <v>1.147848</v>
+        <v>1.437706</v>
       </c>
       <c r="I10">
-        <v>0.01045442848075992</v>
+        <v>0.01285369633777395</v>
       </c>
       <c r="J10">
-        <v>0.01045442848075992</v>
+        <v>0.01285369633777395</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.489401</v>
+        <v>2.392593</v>
       </c>
       <c r="N10">
-        <v>4.468203</v>
+        <v>7.177778999999999</v>
       </c>
       <c r="O10">
-        <v>0.04553544112151264</v>
+        <v>0.06706451029968528</v>
       </c>
       <c r="P10">
-        <v>0.04553544112151264</v>
+        <v>0.06706451029968527</v>
       </c>
       <c r="Q10">
-        <v>0.5698686530160001</v>
+        <v>1.146615103886</v>
       </c>
       <c r="R10">
-        <v>5.128817877144001</v>
+        <v>10.319535934974</v>
       </c>
       <c r="S10">
-        <v>0.0004760470125447081</v>
+        <v>0.0008620268504336683</v>
       </c>
       <c r="T10">
-        <v>0.000476047012544708</v>
+        <v>0.0008620268504336679</v>
       </c>
     </row>
   </sheetData>
